--- a/script/Pr_temp_spreadsheets/05_00_ARC05_5B.xlsx
+++ b/script/Pr_temp_spreadsheets/05_00_ARC05_5B.xlsx
@@ -993,7 +993,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6bd75d72-603f-4ee9-b4f5-21bb7924a7da}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ce654bb1-7c0b-40f5-996c-6eff424196e3}">
   <dimension ref="A1:B101"/>
   <sheetViews>
     <sheetView workbookViewId="0" topLeftCell="A1"/>
@@ -1819,7 +1819,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{f513b3e8-120f-41a3-a743-4302512a4905}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ba10d5cc-d00b-4d62-bbd5-e91d2c13e15d}">
   <dimension ref="A5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" topLeftCell="A1"/>
